--- a/output/risk/KHM_osm_tc_HadGEM3-GC31-HM_risk.xlsx
+++ b/output/risk/KHM_osm_tc_HadGEM3-GC31-HM_risk.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:CG4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,17 +438,422 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>W5_1</t>
+          <t>W5_1_1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>W5_2</t>
+          <t>W5_1_2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>W5_3</t>
+          <t>W5_1_3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_9</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_5</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_6</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_7</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_8</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_9</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_10</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_11</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_12</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_5</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_6</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_7</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_8</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_9</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_10</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_11</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_12</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_5</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_6</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_7</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_8</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_9</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_10</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_11</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_12</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_3</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_4</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_5</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_6</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_7</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_8</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_9</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_10</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_11</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_12</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_3</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_4</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_5</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_6</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_7</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_8</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_9</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_10</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_11</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_12</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_3</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_4</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_5</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_6</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_7</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_8</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_9</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_10</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_11</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_12</t>
         </is>
       </c>
     </row>
@@ -459,13 +864,256 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>379135.659034269</v>
+        <v>4117685.122054448</v>
       </c>
       <c r="C2" t="n">
-        <v>478777.882896081</v>
+        <v>4529453.634259892</v>
       </c>
       <c r="D2" t="n">
-        <v>406781.1517992065</v>
+        <v>5352990.658670781</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6711826.74894875</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7383016.781232169</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8725372.321170527</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2758849.03177648</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3034726.577565584</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3586506.193772272</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4496933.976893339</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4946617.564731281</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5846009.265035645</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2987224.019753968</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3285946.421729364</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3883391.225680158</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4869175.152198968</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5356098.004924557</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6329925.918690093</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2001440.093235158</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2201578.765052981</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2601873.90037427</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3262354.646564422</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3588582.994546606</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4241057.48219662</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>507335.4617562729</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>558069.0079319002</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>659536.1002831548</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>826956.8026627247</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>909653.3894247597</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1075043.541296288</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>339914.7593767028</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>373905.3288186106</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>441889.4893549679</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>554062.2966615678</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>609467.3176667078</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>720280.3813295297</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>4170435.521039248</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>4587479.07314317</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5421566.17735102</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>6797809.899293973</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>7477598.340865158</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>8837150.385201566</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>2794191.799096295</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>3073603.527364136</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3632451.82270578</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>4554542.816437406</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>5009987.162558761</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5920900.693607435</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>8304425.746532014</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>9134868.321185213</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>10795753.47049161</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>13536213.96684718</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>14889850.20169583</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>17597073.21084669</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>5563965.250176448</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>6120346.937030163</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>7233159.771284025</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>9069283.636611648</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>9976192.216054238</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>11790058.83548586</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>9146114.839875618</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>10060726.32386318</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>11889949.2918383</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>14908167.18899726</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>16399000.24997233</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>19380611.89833798</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>6127896.942716663</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>6740670.294912975</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>7966271.472890113</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>9988494.350797812</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>10987321.99644379</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>12985031.76132025</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>9189482.47263249</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>10108430.71989574</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>11946327.21442224</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>14978856.43039096</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>16476758.49299373</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>19472507.88632036</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>6156953.256663769</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>6772632.162766466</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>8004044.706850792</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>10035856.2484323</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>11039419.98052396</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>13046602.17658621</v>
       </c>
     </row>
     <row r="3">
@@ -475,13 +1123,256 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>284351.7442757018</v>
+        <v>3088263.841540837</v>
       </c>
       <c r="C3" t="n">
-        <v>359083.4121720607</v>
+        <v>3397090.225694919</v>
       </c>
       <c r="D3" t="n">
-        <v>305085.8638494049</v>
+        <v>4014742.994003086</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5033870.061711562</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5537262.585924127</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6544029.240877895</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2069136.77383236</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2276044.933174188</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2689879.645329204</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3372700.482670005</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3709963.173548461</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4384506.948776734</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2240418.014815476</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2464459.816297023</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2912543.419260119</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3651881.364149225</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4017073.503693418</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4747444.439017569</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1501080.069926369</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1651184.073789736</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1951405.425280703</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2446765.984923317</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2691437.245909955</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3180793.111647465</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>380501.5963172048</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>418551.7559489252</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>494652.0752123662</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>620217.6019970436</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>682240.0420685699</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>806282.655972216</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>254936.0695325271</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>280428.996613958</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>331417.1170162258</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>415546.7224961758</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>457100.4882500309</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>540210.2859971473</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>3127826.640779436</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>3440609.304857379</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4066174.633013266</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>5098357.424470479</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>5608198.755648868</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>6627862.788901174</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>2095643.849322221</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2305202.645523102</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2724338.867029335</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>3415907.112328054</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>3757490.37191907</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4440675.520205576</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>6228319.30989901</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>6851151.24088891</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>8096815.102868712</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>10152160.47513538</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>11167387.65127187</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>13197804.90813502</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>4172973.937632336</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>4590260.202772621</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>5424869.82846302</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>6801962.727458738</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>7482144.162040679</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>8842544.126614394</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>6859586.129906715</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>7545544.742897385</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>8917461.968878727</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>11181125.39174794</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>12299250.18747925</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>14535458.92375349</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>4595922.707037498</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>5055502.721184731</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>5974703.604667584</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>7491370.763098359</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>8240491.49733284</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>9738773.82099019</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>6892111.854474369</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>7581323.039921805</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>8959745.410816679</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>11234142.32279322</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>12357568.8697453</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>14604380.91474026</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>4617714.942497827</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>5079474.12207485</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>6003033.530138095</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>7526892.186324229</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>8279564.985392973</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>9784951.632439658</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +1382,256 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473919.5737928363</v>
+        <v>5147106.40256806</v>
       </c>
       <c r="C4" t="n">
-        <v>598472.3536201012</v>
+        <v>5661817.042824866</v>
       </c>
       <c r="D4" t="n">
-        <v>508476.4397490082</v>
+        <v>6691238.323338479</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8389783.436185939</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9228770.976540212</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10906715.40146316</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3448561.2897206</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3793408.221956979</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4483132.742215341</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5621167.471116675</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6183271.955914101</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7307511.581294559</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3734030.024692459</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4107433.027161705</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4854239.032100197</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6086468.940248711</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6695122.506155697</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7912407.398362619</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2501800.116543949</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2751973.456316226</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3252342.375467838</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4077943.308205528</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4485728.743183257</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>5301321.852745775</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>634169.3271953411</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>697586.2599148753</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>824420.1253539434</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1033696.003328406</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1137066.73678095</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1343804.42662036</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>424893.4492208785</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>467381.6610232633</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>552361.8616937099</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>692577.8708269596</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>761834.1470833848</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>900350.4766619123</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>5213044.401299058</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>5734348.841428964</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6776957.721688776</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8497262.374117468</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>9346997.926081449</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>11046437.98150196</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>3492739.74887037</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>3842004.40920517</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>4540564.778382225</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>5693178.520546757</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>6262483.953198451</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>7401125.867009295</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>10380532.18316501</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>11418585.40148152</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>13494691.83811452</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>16920267.45855898</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>18612312.75211979</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>21996341.51355837</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>6954956.562720561</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>7650433.671287702</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>9041449.714105032</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>11336604.54576456</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>12470240.2700678</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>14737573.54435732</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>11432643.54984452</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>12575907.90482898</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>14862436.61479788</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>18635208.98624657</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>20498750.31246542</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>24225764.87292248</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>7659871.178395832</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>8425837.868641218</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>9957839.341112642</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>12485617.93849726</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>13734152.49555473</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>16231289.70165032</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>11486853.09079061</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>12635538.39986968</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>14932909.0180278</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>18723570.5379887</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>20595948.11624217</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>24340634.85790045</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>7696191.570829714</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>8465790.203458082</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>10005055.88356349</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>12544820.31054038</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>13799274.97565495</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>16308252.72073277</v>
       </c>
     </row>
   </sheetData>
@@ -511,7 +1645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,25 +1766,30 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>W3_23</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W3_24</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>W3_25</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>W3_26</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>W3_27</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>W3_28</t>
         </is>
@@ -663,85 +1802,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3.243541352234479e-255</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.684547556892704e-15</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>5.53686700003754</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>69380.62070134183</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2229.388476268808</v>
       </c>
       <c r="G2" t="n">
-        <v>8050.348212513203</v>
+        <v>73667.93117632988</v>
       </c>
       <c r="H2" t="n">
-        <v>26633402.58171616</v>
+        <v>77603.4702567699</v>
       </c>
       <c r="I2" t="n">
-        <v>125666502.993764</v>
+        <v>69887.44443769372</v>
       </c>
       <c r="J2" t="n">
-        <v>178868070.3520588</v>
+        <v>54135.97793112364</v>
       </c>
       <c r="K2" t="n">
-        <v>266852136.90365</v>
+        <v>32488.86372083636</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>415634.3698568309</v>
       </c>
       <c r="M2" t="n">
-        <v>758470.7105521025</v>
+        <v>837973.0953033966</v>
       </c>
       <c r="N2" t="n">
-        <v>1771206.741281992</v>
+        <v>864494.2318379894</v>
       </c>
       <c r="O2" t="n">
-        <v>-647298.4466570006</v>
+        <v>86306.48619443773</v>
       </c>
       <c r="P2" t="n">
-        <v>-647298.4466570006</v>
+        <v>219503.1076330743</v>
       </c>
       <c r="Q2" t="n">
-        <v>-7.956250347626075e-07</v>
+        <v>29138.41666141216</v>
       </c>
       <c r="R2" t="n">
-        <v>34008183.89643426</v>
+        <v>1148128.936313208</v>
       </c>
       <c r="S2" t="n">
-        <v>12372202.16049731</v>
+        <v>1134496.056960664</v>
       </c>
       <c r="T2" t="n">
-        <v>2598211.657641087</v>
+        <v>1092060.711562623</v>
       </c>
       <c r="U2" t="n">
-        <v>2592103.308415207</v>
+        <v>999257.1890881625</v>
       </c>
       <c r="V2" t="n">
-        <v>-473266.9418965442</v>
+        <v>835728.0655586129</v>
       </c>
       <c r="W2" t="n">
-        <v>656141.5253995334</v>
+        <v>637501.9256577804</v>
       </c>
       <c r="X2" t="n">
-        <v>113906.3168836146</v>
+        <v>458367.0235507521</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>314859.0861450201</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>225055.2632842778</v>
       </c>
       <c r="AA2" t="n">
-        <v>741134.9994473258</v>
+        <v>158534.8076794849</v>
       </c>
       <c r="AB2" t="n">
-        <v>654150.1402929267</v>
+        <v>5135.821326091198</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>21369.25375190328</v>
       </c>
     </row>
     <row r="3">
@@ -751,85 +1893,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.432656014175859e-255</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.013410667669528e-15</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.152650250028154</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>52035.46552600637</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1672.041357201606</v>
       </c>
       <c r="G3" t="n">
-        <v>6037.761159384903</v>
+        <v>55250.94838224741</v>
       </c>
       <c r="H3" t="n">
-        <v>19975051.93628713</v>
+        <v>58202.60269257742</v>
       </c>
       <c r="I3" t="n">
-        <v>94249877.24532302</v>
+        <v>52415.58332827028</v>
       </c>
       <c r="J3" t="n">
-        <v>134151052.7640441</v>
+        <v>40601.98344834274</v>
       </c>
       <c r="K3" t="n">
-        <v>200139102.6777374</v>
+        <v>24366.64779062726</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>311725.7773926231</v>
       </c>
       <c r="M3" t="n">
-        <v>568853.0329140772</v>
+        <v>628479.8214775474</v>
       </c>
       <c r="N3" t="n">
-        <v>1328405.055961495</v>
+        <v>648370.673878492</v>
       </c>
       <c r="O3" t="n">
-        <v>-485473.8349927508</v>
+        <v>64729.86464582829</v>
       </c>
       <c r="P3" t="n">
-        <v>-485473.8349927508</v>
+        <v>164627.3307248057</v>
       </c>
       <c r="Q3" t="n">
-        <v>-5.967187760719557e-07</v>
+        <v>21853.81249605912</v>
       </c>
       <c r="R3" t="n">
-        <v>25506137.9223257</v>
+        <v>861096.7022349058</v>
       </c>
       <c r="S3" t="n">
-        <v>9279151.620372979</v>
+        <v>850872.0427204978</v>
       </c>
       <c r="T3" t="n">
-        <v>1948658.743230819</v>
+        <v>819045.5336719672</v>
       </c>
       <c r="U3" t="n">
-        <v>1944077.481311405</v>
+        <v>749442.8918161218</v>
       </c>
       <c r="V3" t="n">
-        <v>-354950.2064224078</v>
+        <v>626796.0491689597</v>
       </c>
       <c r="W3" t="n">
-        <v>492106.1440496501</v>
+        <v>478126.4442433352</v>
       </c>
       <c r="X3" t="n">
-        <v>85429.73766271095</v>
+        <v>343775.2676630641</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>236144.3146087651</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>168791.4474632083</v>
       </c>
       <c r="AA3" t="n">
-        <v>555851.2495854949</v>
+        <v>118901.1057596137</v>
       </c>
       <c r="AB3" t="n">
-        <v>490612.6052196953</v>
+        <v>3851.865994568398</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>16026.94031392747</v>
       </c>
     </row>
     <row r="4">
@@ -839,85 +1984,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4.054426690293099e-255</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.355684446115881e-15</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.921083750046925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>86725.7758766773</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2786.735595336011</v>
       </c>
       <c r="G4" t="n">
-        <v>10062.93526564151</v>
+        <v>92084.91397041238</v>
       </c>
       <c r="H4" t="n">
-        <v>33291753.22714521</v>
+        <v>97004.33782096238</v>
       </c>
       <c r="I4" t="n">
-        <v>157083128.742205</v>
+        <v>87359.30554711714</v>
       </c>
       <c r="J4" t="n">
-        <v>223585087.9400736</v>
+        <v>67669.97241390457</v>
       </c>
       <c r="K4" t="n">
-        <v>333565171.1295624</v>
+        <v>40611.07965104545</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>519542.9623210387</v>
       </c>
       <c r="M4" t="n">
-        <v>948088.3881901288</v>
+        <v>1047466.369129246</v>
       </c>
       <c r="N4" t="n">
-        <v>2214008.426602491</v>
+        <v>1080617.789797487</v>
       </c>
       <c r="O4" t="n">
-        <v>-809123.058321252</v>
+        <v>107883.1077430472</v>
       </c>
       <c r="P4" t="n">
-        <v>-809123.058321252</v>
+        <v>274378.8845413428</v>
       </c>
       <c r="Q4" t="n">
-        <v>-9.945312934532595e-07</v>
+        <v>36423.02082676521</v>
       </c>
       <c r="R4" t="n">
-        <v>42510229.87054284</v>
+        <v>1435161.17039151</v>
       </c>
       <c r="S4" t="n">
-        <v>15465252.70062163</v>
+        <v>1418120.07120083</v>
       </c>
       <c r="T4" t="n">
-        <v>3247764.572051364</v>
+        <v>1365075.889453279</v>
       </c>
       <c r="U4" t="n">
-        <v>3240129.135519009</v>
+        <v>1249071.486360203</v>
       </c>
       <c r="V4" t="n">
-        <v>-591583.677370679</v>
+        <v>1044660.081948266</v>
       </c>
       <c r="W4" t="n">
-        <v>820176.9067494166</v>
+        <v>796877.4070722256</v>
       </c>
       <c r="X4" t="n">
-        <v>142382.8961045183</v>
+        <v>572958.7794384402</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>393573.8576812752</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>281319.0791053473</v>
       </c>
       <c r="AA4" t="n">
-        <v>926418.7493091559</v>
+        <v>198168.5095993562</v>
       </c>
       <c r="AB4" t="n">
-        <v>817687.6753661591</v>
+        <v>6419.776657613999</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>26711.56718987912</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +2079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1215,6 +2363,11 @@
           <t>W4_55</t>
         </is>
       </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>W4_56</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1223,169 +2376,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>694.1804983211468</v>
+        <v>1.228894360442</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.01250238461117999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6470802716850583</v>
+        <v>0.09491965747298306</v>
       </c>
       <c r="E2" t="n">
-        <v>673.4369035897649</v>
+        <v>0.888367359018433</v>
       </c>
       <c r="F2" t="n">
-        <v>150.17701932121</v>
+        <v>18.0372198577027</v>
       </c>
       <c r="G2" t="n">
-        <v>220.4398498752324</v>
+        <v>35.82847923431687</v>
       </c>
       <c r="H2" t="n">
-        <v>1.941240815055176</v>
+        <v>19.62847976632609</v>
       </c>
       <c r="I2" t="n">
-        <v>26.31459771519239</v>
+        <v>37.73198666699633</v>
       </c>
       <c r="J2" t="n">
-        <v>481.8981933329449</v>
+        <v>37.68445828667576</v>
       </c>
       <c r="K2" t="n">
-        <v>497.8450862864025</v>
+        <v>30.60659645422954</v>
       </c>
       <c r="L2" t="n">
-        <v>22200.05810428777</v>
+        <v>230.7838836201542</v>
       </c>
       <c r="M2" t="n">
-        <v>2432.933301045837</v>
+        <v>117.5108149828134</v>
       </c>
       <c r="N2" t="n">
-        <v>6972.549307557573</v>
+        <v>88.77213020376412</v>
       </c>
       <c r="O2" t="n">
-        <v>166152.282348899</v>
+        <v>475.9585774470022</v>
       </c>
       <c r="P2" t="n">
-        <v>3006.30128461652</v>
+        <v>130.8224063759297</v>
       </c>
       <c r="Q2" t="n">
-        <v>-62.36287762214825</v>
+        <v>47.42733053104635</v>
       </c>
       <c r="R2" t="n">
-        <v>1562.411657347662</v>
+        <v>64.03656791183853</v>
       </c>
       <c r="S2" t="n">
-        <v>3566.549881928147</v>
+        <v>100.45223609618</v>
       </c>
       <c r="T2" t="n">
-        <v>11587.43008423223</v>
+        <v>171.9965172089795</v>
       </c>
       <c r="U2" t="n">
-        <v>600.620409614047</v>
+        <v>60.60230837619562</v>
       </c>
       <c r="V2" t="n">
-        <v>859.2413727363696</v>
+        <v>64.75441610070341</v>
       </c>
       <c r="W2" t="n">
-        <v>4038.349661667827</v>
+        <v>113.5009095754272</v>
       </c>
       <c r="X2" t="n">
-        <v>19180.85447793553</v>
+        <v>185.5357089440173</v>
       </c>
       <c r="Y2" t="n">
-        <v>81.64786696696228</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="Z2" t="n">
-        <v>177.7857775797725</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AA2" t="n">
-        <v>1623.764819586871</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AB2" t="n">
-        <v>1636.706425020572</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AC2" t="n">
-        <v>17815.95230463774</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AD2" t="n">
-        <v>37396.60469687509</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AE2" t="n">
-        <v>58149.94949934156</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AF2" t="n">
-        <v>72927.91952708436</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1.71665816669156</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.923441816961511</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>5.330302128348812</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17800.64152331065</v>
+        <v>91.49188167298212</v>
       </c>
       <c r="AK2" t="n">
-        <v>73126.14890346905</v>
+        <v>274.7501541411797</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>8.972514970778054</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>9.917182408016828</v>
       </c>
       <c r="AN2" t="n">
-        <v>879.7178892259641</v>
+        <v>28.71018510305696</v>
       </c>
       <c r="AO2" t="n">
-        <v>45799.40536165007</v>
+        <v>176.9762694613958</v>
       </c>
       <c r="AP2" t="n">
-        <v>84963.82415825812</v>
+        <v>352.9988788213296</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-326.0594780434378</v>
+        <v>7.623371858568844</v>
       </c>
       <c r="AR2" t="n">
-        <v>1473.759615192843</v>
+        <v>28.30677169618675</v>
       </c>
       <c r="AS2" t="n">
-        <v>576.3339440499417</v>
+        <v>3.22407765794598</v>
       </c>
       <c r="AT2" t="n">
-        <v>409.5179922641012</v>
+        <v>7.805010445920951</v>
       </c>
       <c r="AU2" t="n">
-        <v>417.9550569316867</v>
+        <v>5.395524029326149</v>
       </c>
       <c r="AV2" t="n">
-        <v>652.5523082948639</v>
+        <v>13.03796652681008</v>
       </c>
       <c r="AW2" t="n">
-        <v>34.48212309834538</v>
+        <v>4.245331780966297</v>
       </c>
       <c r="AX2" t="n">
-        <v>89.69754251300037</v>
+        <v>6.362295064541181</v>
       </c>
       <c r="AY2" t="n">
-        <v>193.245135065096</v>
+        <v>9.582412467632405</v>
       </c>
       <c r="AZ2" t="n">
-        <v>226801.367300292</v>
+        <v>511.8375220660125</v>
       </c>
       <c r="BA2" t="n">
-        <v>-54869.76360780945</v>
+        <v>512.4534516954541</v>
       </c>
       <c r="BB2" t="n">
-        <v>82702.44240971419</v>
+        <v>510.1950430541682</v>
       </c>
       <c r="BC2" t="n">
-        <v>144569.0262898382</v>
+        <v>511.0676100292105</v>
       </c>
       <c r="BD2" t="n">
-        <v>94223.06584812369</v>
+        <v>512.1968143498535</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>7.883441793277831</v>
       </c>
     </row>
     <row r="3">
@@ -1395,169 +2551,172 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>520.6353737408599</v>
+        <v>0.9216707703314999</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.009376788458384995</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4853102037637939</v>
+        <v>0.0711897431047373</v>
       </c>
       <c r="E3" t="n">
-        <v>505.0776776923238</v>
+        <v>0.6662755192638248</v>
       </c>
       <c r="F3" t="n">
-        <v>112.6327644909075</v>
+        <v>13.52791489327702</v>
       </c>
       <c r="G3" t="n">
-        <v>165.3298874064242</v>
+        <v>26.87135942573766</v>
       </c>
       <c r="H3" t="n">
-        <v>1.455930611291381</v>
+        <v>14.72135982474457</v>
       </c>
       <c r="I3" t="n">
-        <v>19.73594828639428</v>
+        <v>28.29899000024725</v>
       </c>
       <c r="J3" t="n">
-        <v>361.4236449997086</v>
+        <v>28.26334371500681</v>
       </c>
       <c r="K3" t="n">
-        <v>373.3838147148018</v>
+        <v>22.95494734067215</v>
       </c>
       <c r="L3" t="n">
-        <v>16650.04357821583</v>
+        <v>173.0879127151156</v>
       </c>
       <c r="M3" t="n">
-        <v>1824.699975784377</v>
+        <v>88.13311123711003</v>
       </c>
       <c r="N3" t="n">
-        <v>5229.411980668179</v>
+        <v>66.57909765282309</v>
       </c>
       <c r="O3" t="n">
-        <v>124614.2117616741</v>
+        <v>356.9689330852517</v>
       </c>
       <c r="P3" t="n">
-        <v>2254.72596346239</v>
+        <v>98.11680478194728</v>
       </c>
       <c r="Q3" t="n">
-        <v>-46.77215821661122</v>
+        <v>35.57049789828476</v>
       </c>
       <c r="R3" t="n">
-        <v>1171.808743010746</v>
+        <v>48.0274259338789</v>
       </c>
       <c r="S3" t="n">
-        <v>2674.912411446109</v>
+        <v>75.33917707213502</v>
       </c>
       <c r="T3" t="n">
-        <v>8690.572563174177</v>
+        <v>128.9973879067346</v>
       </c>
       <c r="U3" t="n">
-        <v>450.4653072105356</v>
+        <v>45.45173128214672</v>
       </c>
       <c r="V3" t="n">
-        <v>644.4310295522771</v>
+        <v>48.56581207552756</v>
       </c>
       <c r="W3" t="n">
-        <v>3028.762246250871</v>
+        <v>85.12568218157038</v>
       </c>
       <c r="X3" t="n">
-        <v>14385.64085845166</v>
+        <v>139.1517817080129</v>
       </c>
       <c r="Y3" t="n">
-        <v>61.23590022522168</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="Z3" t="n">
-        <v>133.3393331848293</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AA3" t="n">
-        <v>1217.823614690154</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AB3" t="n">
-        <v>1227.52981876543</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AC3" t="n">
-        <v>13361.96422847831</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AD3" t="n">
-        <v>28047.4535226563</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AE3" t="n">
-        <v>43612.46212450616</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AF3" t="n">
-        <v>54695.93964531325</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1.28749362501867</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.442581362721133</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>3.997726596261609</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13350.48114248299</v>
+        <v>68.6189112547366</v>
       </c>
       <c r="AK3" t="n">
-        <v>54844.61167760176</v>
+        <v>206.0626156058847</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>6.729386228083539</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>7.437886806012621</v>
       </c>
       <c r="AN3" t="n">
-        <v>659.7884169194732</v>
+        <v>21.53263882729272</v>
       </c>
       <c r="AO3" t="n">
-        <v>34349.55402123756</v>
+        <v>132.7322020960469</v>
       </c>
       <c r="AP3" t="n">
-        <v>63722.86811869348</v>
+        <v>264.7491591159973</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-244.5446085325796</v>
+        <v>5.717528893926634</v>
       </c>
       <c r="AR3" t="n">
-        <v>1105.319711394629</v>
+        <v>21.23007877214006</v>
       </c>
       <c r="AS3" t="n">
-        <v>432.2504580374562</v>
+        <v>2.418058243459486</v>
       </c>
       <c r="AT3" t="n">
-        <v>307.1384941980763</v>
+        <v>5.853757834440714</v>
       </c>
       <c r="AU3" t="n">
-        <v>313.4662926987644</v>
+        <v>4.046643021994612</v>
       </c>
       <c r="AV3" t="n">
-        <v>489.4142312211468</v>
+        <v>9.778474895107557</v>
       </c>
       <c r="AW3" t="n">
-        <v>25.86159232375903</v>
+        <v>3.183998835724724</v>
       </c>
       <c r="AX3" t="n">
-        <v>67.27315688475025</v>
+        <v>4.771721298405887</v>
       </c>
       <c r="AY3" t="n">
-        <v>144.933851298822</v>
+        <v>7.186809350724305</v>
       </c>
       <c r="AZ3" t="n">
-        <v>170101.0254752191</v>
+        <v>383.8781415495094</v>
       </c>
       <c r="BA3" t="n">
-        <v>-41152.32270585696</v>
+        <v>384.3400887715907</v>
       </c>
       <c r="BB3" t="n">
-        <v>62026.8318072858</v>
+        <v>382.6462822906261</v>
       </c>
       <c r="BC3" t="n">
-        <v>108426.7697173786</v>
+        <v>383.3007075219078</v>
       </c>
       <c r="BD3" t="n">
-        <v>70667.29938609262</v>
+        <v>384.1476107623902</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>5.912581344958374</v>
       </c>
     </row>
     <row r="4">
@@ -1567,169 +2726,172 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>867.7256229014332</v>
+        <v>1.536117950552499</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.01562798076397499</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8088503396063234</v>
+        <v>0.1186495718412288</v>
       </c>
       <c r="E4" t="n">
-        <v>841.7961294872067</v>
+        <v>1.110459198773041</v>
       </c>
       <c r="F4" t="n">
-        <v>187.7212741515125</v>
+        <v>22.54652482212837</v>
       </c>
       <c r="G4" t="n">
-        <v>275.5498123440404</v>
+        <v>44.7855990428961</v>
       </c>
       <c r="H4" t="n">
-        <v>2.426551018818969</v>
+        <v>24.53559970790761</v>
       </c>
       <c r="I4" t="n">
-        <v>32.89324714399048</v>
+        <v>47.1649833337454</v>
       </c>
       <c r="J4" t="n">
-        <v>602.3727416661809</v>
+        <v>47.10557285834469</v>
       </c>
       <c r="K4" t="n">
-        <v>622.3063578580031</v>
+        <v>38.25824556778691</v>
       </c>
       <c r="L4" t="n">
-        <v>27750.07263035972</v>
+        <v>288.4798545251926</v>
       </c>
       <c r="M4" t="n">
-        <v>3041.166626307295</v>
+        <v>146.8885187285167</v>
       </c>
       <c r="N4" t="n">
-        <v>8715.686634446971</v>
+        <v>110.9651627547051</v>
       </c>
       <c r="O4" t="n">
-        <v>207690.3529361238</v>
+        <v>594.9482218087526</v>
       </c>
       <c r="P4" t="n">
-        <v>3757.876605770649</v>
+        <v>163.5280079699122</v>
       </c>
       <c r="Q4" t="n">
-        <v>-77.95359702768562</v>
+        <v>59.28416316380791</v>
       </c>
       <c r="R4" t="n">
-        <v>1953.014571684578</v>
+        <v>80.04570988979815</v>
       </c>
       <c r="S4" t="n">
-        <v>4458.187352410181</v>
+        <v>125.565295120225</v>
       </c>
       <c r="T4" t="n">
-        <v>14484.28760529028</v>
+        <v>214.9956465112243</v>
       </c>
       <c r="U4" t="n">
-        <v>750.775512017558</v>
+        <v>75.75288547024451</v>
       </c>
       <c r="V4" t="n">
-        <v>1074.051715920464</v>
+        <v>80.94302012587924</v>
       </c>
       <c r="W4" t="n">
-        <v>5047.937077084784</v>
+        <v>141.8761369692839</v>
       </c>
       <c r="X4" t="n">
-        <v>23976.06809741942</v>
+        <v>231.9196361800215</v>
       </c>
       <c r="Y4" t="n">
-        <v>102.0598337087028</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="Z4" t="n">
-        <v>222.2322219747156</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AA4" t="n">
-        <v>2029.70602448359</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AB4" t="n">
-        <v>2045.883031275717</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AC4" t="n">
-        <v>22269.94038079718</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AD4" t="n">
-        <v>46745.75587109385</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AE4" t="n">
-        <v>72687.43687417694</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AF4" t="n">
-        <v>91159.89940885545</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2.145822708364449</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>2.404302271201888</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>6.662877660436013</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22250.80190413831</v>
+        <v>114.3648520912276</v>
       </c>
       <c r="AK4" t="n">
-        <v>91407.68612933635</v>
+        <v>343.4376926764745</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>11.21564371347256</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>12.39647801002103</v>
       </c>
       <c r="AN4" t="n">
-        <v>1099.647361532456</v>
+        <v>35.88773137882119</v>
       </c>
       <c r="AO4" t="n">
-        <v>57249.25670206259</v>
+        <v>221.2203368267447</v>
       </c>
       <c r="AP4" t="n">
-        <v>106204.7801978225</v>
+        <v>441.248598526662</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-407.5743475542979</v>
+        <v>9.529214823211055</v>
       </c>
       <c r="AR4" t="n">
-        <v>1842.199518991052</v>
+        <v>35.38346462023343</v>
       </c>
       <c r="AS4" t="n">
-        <v>720.417430062427</v>
+        <v>4.030097072432475</v>
       </c>
       <c r="AT4" t="n">
-        <v>511.897490330127</v>
+        <v>9.756263057401185</v>
       </c>
       <c r="AU4" t="n">
-        <v>522.4438211646075</v>
+        <v>6.744405036657685</v>
       </c>
       <c r="AV4" t="n">
-        <v>815.69038536858</v>
+        <v>16.29745815851259</v>
       </c>
       <c r="AW4" t="n">
-        <v>43.10265387293174</v>
+        <v>5.30666472620787</v>
       </c>
       <c r="AX4" t="n">
-        <v>112.1219281412504</v>
+        <v>7.952868830676476</v>
       </c>
       <c r="AY4" t="n">
-        <v>241.55641883137</v>
+        <v>11.9780155845405</v>
       </c>
       <c r="AZ4" t="n">
-        <v>283501.7091253652</v>
+        <v>639.7969025825155</v>
       </c>
       <c r="BA4" t="n">
-        <v>-68587.20450976166</v>
+        <v>640.5668146193175</v>
       </c>
       <c r="BB4" t="n">
-        <v>103378.0530121429</v>
+        <v>637.7438038177102</v>
       </c>
       <c r="BC4" t="n">
-        <v>180711.282862298</v>
+        <v>638.834512536513</v>
       </c>
       <c r="BD4" t="n">
-        <v>117778.8323101546</v>
+        <v>640.2460179373168</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>9.854302241597287</v>
       </c>
     </row>
   </sheetData>
